--- a/target/test-classes/dataProvider.xlsx
+++ b/target/test-classes/dataProvider.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
